--- a/app/app_documentacion/4to_tri/Informe de costos/Plantilla costo SAIA.xlsx
+++ b/app/app_documentacion/4to_tri/Informe de costos/Plantilla costo SAIA.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto_ADSI\app\app_documentacion\4to_tri\Informe de costos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B11634B-7985-40E6-B218-7B370C1B2B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Remun., honor., incent." sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Subcontratos" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Capacitación" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Pasajes y viáticos" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Equipos e infra" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Software, fungibles" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Otros" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="TOTAL" sheetId="8" r:id="rId11"/>
+    <sheet name="Remun., honor., incent." sheetId="1" r:id="rId1"/>
+    <sheet name="Subcontratos" sheetId="2" r:id="rId2"/>
+    <sheet name="Capacitación" sheetId="3" r:id="rId3"/>
+    <sheet name="Pasajes y viáticos" sheetId="4" r:id="rId4"/>
+    <sheet name="Equipos e infra" sheetId="5" r:id="rId5"/>
+    <sheet name="Software, fungibles" sheetId="6" r:id="rId6"/>
+    <sheet name="Otros" sheetId="7" r:id="rId7"/>
+    <sheet name="TOTAL" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mhg5PO+EOZxarNcp6yBWMEZ7f0vyA=="/>
@@ -360,86 +369,86 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Sistema operativo:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> (Linux), </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Cantidad:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> (1), </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Estrategia deprecios:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> (EC2 Instance Savings Plan por 3 años Sin pagos iniciales), </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Cantidad de al macenamiento:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> (3 TB), </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Tipo de instancia:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> (t4g.2xlarge)</t>
     </r>
@@ -459,54 +468,54 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Commitment v1</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">: E2 Cpu in Santiago for 3 Year,5840,southamerica-west1,6F81-5844-456A,ACA7-B502-4924,CP-COMPUTEENGINE-VMIMAGE-E2-STANDARD-8,0.014035758,81.96882672000001
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Numeros de instancias:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1                                                   </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>These instances are for:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 Free: Debian, CentOS, CoreOS, Ubuntu or BYOL (Bring Your Own License)
@@ -514,18 +523,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Modelo de aprovisionamiento:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 Regular
@@ -533,18 +542,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Familia de máquinas:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 General purpose
@@ -552,18 +561,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Series:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 E2
@@ -571,18 +580,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Tipo de máquina:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 e2-standard-8 (vCPUs: 8, RAM: 32GB)
@@ -590,18 +599,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Hilos por núcleo:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 2 threads per core
@@ -609,18 +618,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Tipo de disco de arranque:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 Balanced persistent disk</t>
@@ -711,136 +720,146 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="_-&quot;XDR&quot;* #,##0.00_-;\-&quot;XDR&quot;* #,##0.00_-;_-&quot;XDR&quot;* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="6.0"/>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF3366FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF3366FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <strike/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF3366FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="&quot;Segoe UI Light&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="&quot;Segoe UI Light&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="&quot;Segoe UI Light&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF3366FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -848,7 +867,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -864,14 +883,23 @@
     </fill>
   </fills>
   <borders count="17">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -883,19 +911,28 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -904,14 +941,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -920,28 +963,35 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -956,6 +1006,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -966,21 +1017,30 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -990,319 +1050,285 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="115">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="11" fillId="2" fontId="10" numFmtId="165" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="13" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="10" fillId="0" fontId="13" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="13" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="13" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="10" fillId="0" fontId="13" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="13" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1492,36 +1518,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.0"/>
-    <col customWidth="1" min="2" max="2" width="18.63"/>
-    <col customWidth="1" min="3" max="3" width="13.25"/>
-    <col customWidth="1" min="4" max="4" width="12.88"/>
-    <col customWidth="1" min="5" max="5" width="14.25"/>
-    <col customWidth="1" min="6" max="6" width="12.13"/>
-    <col customWidth="1" min="7" max="7" width="8.38"/>
-    <col customWidth="1" min="8" max="8" width="16.63"/>
-    <col customWidth="1" min="9" max="9" width="18.13"/>
-    <col customWidth="1" min="10" max="11" width="11.88"/>
-    <col customWidth="1" min="12" max="26" width="10.63"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:26" ht="18">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1579,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1579,7 +1607,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:26" ht="18">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1611,7 +1639,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1639,7 +1667,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1667,7 +1695,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1697,7 +1725,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1725,7 +1753,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1755,7 +1783,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1785,7 +1813,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1815,7 +1843,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
         <v>7</v>
@@ -1845,7 +1873,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
@@ -1873,291 +1901,291 @@
       <c r="I13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="K13" s="97"/>
       <c r="L13" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="18" t="s">
+      <c r="I14" s="17"/>
+      <c r="J14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="22" t="s">
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="23">
-        <v>3000000.0</v>
-      </c>
-      <c r="C16" s="23">
-        <v>300000.0</v>
-      </c>
-      <c r="D16" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="B16" s="21">
+        <v>3000000</v>
+      </c>
+      <c r="C16" s="21">
+        <v>300000</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
         <f>SUM(B16:D16)</f>
         <v>3300000</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <v>0.2</v>
       </c>
-      <c r="G16" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="H16" s="23">
+      <c r="G16" s="20">
+        <v>6</v>
+      </c>
+      <c r="H16" s="21">
         <f>+E16*F16*G16</f>
         <v>3960000</v>
       </c>
-      <c r="I16" s="26">
-        <v>3960000.0</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="I16" s="21">
+        <v>3960000</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="23" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="23" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="22" t="s">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="23">
-        <v>1700000.0</v>
-      </c>
-      <c r="C18" s="23">
-        <v>250000.0</v>
-      </c>
-      <c r="D18" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="23">
-        <f t="shared" ref="E18:E20" si="1">SUM(B18:D18)</f>
+      <c r="B18" s="21">
+        <v>1700000</v>
+      </c>
+      <c r="C18" s="21">
+        <v>250000</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" ref="E18:E20" si="0">SUM(B18:D18)</f>
         <v>1950000</v>
       </c>
-      <c r="F18" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="22">
-        <v>24.0</v>
-      </c>
-      <c r="H18" s="23">
-        <f t="shared" ref="H18:H20" si="2">+E18*F18*G18</f>
+      <c r="F18" s="22">
+        <v>1</v>
+      </c>
+      <c r="G18" s="20">
+        <v>24</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" ref="H18:H20" si="1">+E18*F18*G18</f>
         <v>46800000</v>
       </c>
-      <c r="I18" s="23">
-        <v>4.68E7</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="22" t="s">
+      <c r="I18" s="21">
+        <v>46800000</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A19" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="23">
-        <v>1700000.0</v>
-      </c>
-      <c r="C19" s="23">
-        <v>250000.0</v>
-      </c>
-      <c r="D19" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="B19" s="21">
+        <v>1700000</v>
+      </c>
+      <c r="C19" s="21">
+        <v>250000</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="0"/>
+        <v>1950000</v>
+      </c>
+      <c r="F19" s="22">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20">
+        <v>24</v>
+      </c>
+      <c r="H19" s="21">
         <f t="shared" si="1"/>
+        <v>46800000</v>
+      </c>
+      <c r="I19" s="21">
+        <v>46800000</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="21">
+        <v>1700000</v>
+      </c>
+      <c r="C20" s="21">
+        <v>250000</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="0"/>
         <v>1950000</v>
       </c>
-      <c r="F19" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="G19" s="22">
-        <v>24.0</v>
-      </c>
-      <c r="H19" s="23">
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+      <c r="G20" s="20">
+        <v>24</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="1"/>
+        <v>46800000</v>
+      </c>
+      <c r="I20" s="21">
+        <v>46800000</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A21" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27">
+        <f t="shared" ref="H21:L21" si="2">SUM(H15:H20)</f>
+        <v>144360000</v>
+      </c>
+      <c r="I21" s="27">
         <f t="shared" si="2"/>
-        <v>46800000</v>
-      </c>
-      <c r="I19" s="23">
-        <v>4.68E7</v>
-      </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="23">
-        <v>1700000.0</v>
-      </c>
-      <c r="C20" s="23">
-        <v>250000.0</v>
-      </c>
-      <c r="D20" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="23">
-        <f t="shared" si="1"/>
-        <v>1950000</v>
-      </c>
-      <c r="F20" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="22">
-        <v>24.0</v>
-      </c>
-      <c r="H20" s="23">
+        <v>144360000</v>
+      </c>
+      <c r="J21" s="28">
         <f t="shared" si="2"/>
-        <v>46800000</v>
-      </c>
-      <c r="I20" s="23">
-        <v>4.68E7</v>
-      </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31">
-        <f t="shared" ref="H21:L21" si="3">SUM(H15:H20)</f>
-        <v>144360000</v>
-      </c>
-      <c r="I21" s="31">
-        <f t="shared" si="3"/>
-        <v>144360000</v>
-      </c>
-      <c r="J21" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="27"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="33"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="33"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="33"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="33"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="33"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
+      <c r="B22" s="23"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A23" s="29"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A24" s="29"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A25" s="29"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A26" s="29"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A27" s="29"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" customHeight="1">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="34" t="s">
+    <row r="29" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A29" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="34" t="s">
+    <row r="30" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A30" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -3124,37 +3152,33 @@
   <mergeCells count="1">
     <mergeCell ref="J13:K13"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.63"/>
-    <col customWidth="1" min="2" max="2" width="51.0"/>
-    <col customWidth="1" min="3" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="6" width="12.0"/>
-    <col customWidth="1" min="7" max="26" width="10.63"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
@@ -3169,105 +3193,105 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="18" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="38">
-        <v>500000.0</v>
-      </c>
-      <c r="D6" s="38">
-        <v>500000.0</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="C6" s="34">
+        <v>500000</v>
+      </c>
+      <c r="D6" s="34">
+        <v>500000</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="39">
-        <f t="shared" ref="C7:G7" si="1">SUM(C6)</f>
+      <c r="B7" s="26"/>
+      <c r="C7" s="35">
+        <f t="shared" ref="C7:G7" si="0">SUM(C6)</f>
         <v>500000</v>
       </c>
-      <c r="D7" s="39">
-        <f t="shared" si="1"/>
+      <c r="D7" s="35">
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E7" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="40"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="40"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A15" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4259,42 +4283,38 @@
   <mergeCells count="1">
     <mergeCell ref="E4:F4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.25"/>
-    <col customWidth="1" min="2" max="2" width="27.25"/>
-    <col customWidth="1" min="3" max="3" width="20.75"/>
-    <col customWidth="1" min="4" max="4" width="23.0"/>
-    <col customWidth="1" min="5" max="26" width="10.63"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A3" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="39" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -4310,174 +4330,174 @@
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="41" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="31" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="47" t="s">
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="32">
-        <f t="shared" ref="E12:I12" si="1">SUM(E6:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="28">
+        <f t="shared" ref="E12:I12" si="0">SUM(E6:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="17" spans="1:1" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="18" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="19" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="20" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="21" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="22" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="23" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="24" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:1" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -5450,66 +5470,62 @@
   <mergeCells count="1">
     <mergeCell ref="G4:H4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.38"/>
-    <col customWidth="1" min="2" max="2" width="15.75"/>
-    <col customWidth="1" min="3" max="3" width="10.88"/>
-    <col customWidth="1" min="4" max="4" width="10.75"/>
-    <col customWidth="1" min="5" max="6" width="12.25"/>
-    <col customWidth="1" min="7" max="7" width="8.38"/>
-    <col customWidth="1" min="8" max="8" width="13.25"/>
-    <col customWidth="1" min="9" max="9" width="16.63"/>
-    <col customWidth="1" min="10" max="10" width="9.75"/>
-    <col customWidth="1" min="11" max="12" width="12.0"/>
-    <col customWidth="1" min="13" max="13" width="9.88"/>
-    <col customWidth="1" min="14" max="26" width="10.63"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:13" ht="12.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="53" t="s">
+    <row r="2" spans="1:13" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="49" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -5522,359 +5538,359 @@
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A4" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="31" t="s">
         <v>64</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="97"/>
       <c r="M4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="55" t="s">
+    <row r="5" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="55" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="18" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56">
-        <f t="shared" ref="E6:E14" si="1">+C6*D6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56">
-        <f t="shared" ref="H6:H14" si="2">(+F6*C6*G6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="56">
-        <f t="shared" ref="I6:I14" si="3">+E6+H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56">
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52">
+        <f t="shared" ref="E6:E14" si="0">+C6*D6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52">
+        <f t="shared" ref="H6:H14" si="1">(+F6*C6*G6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="52">
+        <f t="shared" ref="I6:I14" si="2">+E6+H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56">
+      <c r="I7" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="56">
+      <c r="J7" s="53"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="53"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="53"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="53"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="53"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="21">
+        <f>SUM(E6:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="21">
+        <f t="shared" ref="H15:M15" si="3">SUM(H6:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="56">
+      <c r="J15" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="56">
+      <c r="K15" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="56">
+      <c r="L15" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="56">
+      <c r="M15" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="58" t="s">
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1"/>
+    <row r="17" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="18" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="19" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="20" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="21" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="22" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A22" s="29"/>
+    </row>
+    <row r="23" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A24" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="23">
-        <f>SUM(E6:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="23">
-        <f t="shared" ref="H15:M15" si="4">SUM(H6:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="33"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="34" t="s">
+    </row>
+    <row r="25" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A25" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:1" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -6847,56 +6863,52 @@
   <mergeCells count="1">
     <mergeCell ref="K4:L4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.13"/>
-    <col customWidth="1" min="2" max="2" width="22.88"/>
-    <col customWidth="1" min="3" max="3" width="16.88"/>
-    <col customWidth="1" min="4" max="4" width="20.13"/>
-    <col customWidth="1" min="5" max="6" width="22.38"/>
-    <col customWidth="1" min="7" max="7" width="22.75"/>
-    <col customWidth="1" min="8" max="9" width="12.63"/>
-    <col customWidth="1" min="10" max="26" width="10.63"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="56" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="49" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="9"/>
@@ -6905,28 +6917,28 @@
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="61" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+    </row>
+    <row r="4" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A4" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -6935,282 +6947,282 @@
       <c r="D4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="50" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="18" t="s">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A6" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="57">
-        <v>4000000.0</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="63">
-        <v>3.0</v>
-      </c>
-      <c r="F6" s="57">
-        <f t="shared" ref="F6:F11" si="1">(+C6+D6)*E6</f>
+      <c r="C6" s="53">
+        <v>4000000</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="59">
+        <v>3</v>
+      </c>
+      <c r="F6" s="53">
+        <f t="shared" ref="F6:F11" si="0">(+C6+D6)*E6</f>
         <v>12000000</v>
       </c>
-      <c r="G6" s="57">
-        <v>1.2E7</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="G6" s="53">
+        <v>12000000</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A7" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="57">
-        <v>2500000.0</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="63">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="57">
+      <c r="C7" s="53">
+        <v>2500000</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="59">
+        <v>2</v>
+      </c>
+      <c r="F7" s="53">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+      <c r="G7" s="53">
+        <v>5000000</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A8" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="53">
+        <v>1000000</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="59">
+        <v>1</v>
+      </c>
+      <c r="F8" s="53">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="G8" s="53">
+        <v>1000000</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A9" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="53">
+        <v>90000</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="59">
+        <v>3</v>
+      </c>
+      <c r="F9" s="53">
+        <f t="shared" si="0"/>
+        <v>270000</v>
+      </c>
+      <c r="G9" s="53">
+        <v>270000</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:26" ht="60.75" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="53">
+        <v>1850000</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="59">
+        <v>1</v>
+      </c>
+      <c r="F10" s="53">
+        <f t="shared" si="0"/>
+        <v>1850000</v>
+      </c>
+      <c r="G10" s="53">
+        <v>1850000</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="53">
+        <v>187000</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="59">
+        <v>4</v>
+      </c>
+      <c r="F11" s="53">
+        <f t="shared" si="0"/>
+        <v>748000</v>
+      </c>
+      <c r="G11" s="53">
+        <v>748000</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="35">
+        <f t="shared" ref="F12:G12" si="1">SUM(F6:F11)</f>
+        <v>20868000</v>
+      </c>
+      <c r="G12" s="35">
         <f t="shared" si="1"/>
-        <v>5000000</v>
-      </c>
-      <c r="G7" s="57">
-        <v>5000000.0</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="57">
-        <v>1000000.0</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="57">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="G8" s="57">
-        <v>1000000.0</v>
-      </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="57">
-        <v>90000.0</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="63">
-        <v>3.0</v>
-      </c>
-      <c r="F9" s="57">
-        <f t="shared" si="1"/>
-        <v>270000</v>
-      </c>
-      <c r="G9" s="57">
-        <v>270000.0</v>
-      </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-    </row>
-    <row r="10" ht="60.75" customHeight="1">
-      <c r="A10" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="57">
-        <v>1850000.0</v>
-      </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="57">
-        <f t="shared" si="1"/>
-        <v>1850000</v>
-      </c>
-      <c r="G10" s="57">
-        <v>1850000.0</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="57">
-        <v>187000.0</v>
-      </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="63">
-        <v>4.0</v>
-      </c>
-      <c r="F11" s="57">
-        <f t="shared" si="1"/>
-        <v>748000</v>
-      </c>
-      <c r="G11" s="57">
-        <v>748000.0</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="39">
-        <f t="shared" ref="F12:G12" si="2">SUM(F6:F11)</f>
         <v>20868000</v>
       </c>
-      <c r="G12" s="39">
+      <c r="H12" s="28">
+        <f t="shared" ref="H12:J12" si="2">SUM(H10:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
         <f t="shared" si="2"/>
-        <v>20868000</v>
-      </c>
-      <c r="H12" s="32">
-        <f t="shared" ref="H12:J12" si="3">SUM(H10:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:26" ht="12.75" customHeight="1">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="56" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="49" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="9"/>
@@ -7220,11 +7232,11 @@
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="61" t="s">
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A19" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="50" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -7233,553 +7245,553 @@
       <c r="D19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="50" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="97"/>
       <c r="J19" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="18" t="s">
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="18" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37">
-        <f t="shared" ref="F21:F30" si="4">(+C21+D21)*E21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37">
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33">
+        <f t="shared" ref="F21:F30" si="3">(+C21+D21)*E21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A31" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="28">
+        <f t="shared" ref="F31:J31" si="4">SUM(F21:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37">
+      <c r="H31" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37">
+      <c r="I31" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37">
+      <c r="J31" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="32">
-        <f t="shared" ref="F31:J31" si="5">SUM(F21:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="66" t="s">
+    </row>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="33" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="34" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="35" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="36" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A36" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="72"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="73" t="s">
+      <c r="B36" s="99"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A37" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="77"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="78" t="s">
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A38" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="79" t="s">
+      <c r="E38" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="80" t="s">
+      <c r="F38" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="80" t="s">
+      <c r="G38" s="71" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="81" t="s">
+    <row r="39" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A39" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="82" t="s">
+      <c r="C39" s="73"/>
+      <c r="D39" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="84" t="s">
+      <c r="E39" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="85" t="s">
+      <c r="F39" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="86" t="s">
+      <c r="G39" s="76" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="87"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="91"/>
-    </row>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="92" t="s">
+    <row r="40" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A42" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="73" t="s">
+      <c r="B42" s="99"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="97"/>
+    </row>
+    <row r="43" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A43" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="97"/>
-    </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="78" t="s">
+      <c r="B43" s="99"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="107"/>
+    </row>
+    <row r="44" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A44" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="78" t="s">
+      <c r="D44" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="78" t="s">
+      <c r="E44" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="98" t="s">
+      <c r="F44" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="98" t="s">
+      <c r="G44" s="80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="99" t="s">
+    <row r="45" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A45" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="99" t="s">
+      <c r="C45" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="99" t="s">
+      <c r="D45" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="101" t="s">
+      <c r="E45" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="F45" s="102" t="s">
+      <c r="F45" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G45" s="103" t="s">
+      <c r="G45" s="114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="104"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-    </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="104"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-    </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="104"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-    </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="104"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-    </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="104"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-    </row>
-    <row r="51" ht="60.75" customHeight="1">
-      <c r="A51" s="105"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-    </row>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="92" t="s">
+    <row r="46" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A46" s="109"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+    </row>
+    <row r="47" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A47" s="109"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+    </row>
+    <row r="48" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A48" s="109"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+    </row>
+    <row r="49" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A49" s="109"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+    </row>
+    <row r="50" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A50" s="109"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+    </row>
+    <row r="51" spans="1:7" ht="60.75" customHeight="1">
+      <c r="A51" s="110"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+    </row>
+    <row r="52" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="53" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="54" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A54" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="67"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="16"/>
-    </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="73" t="s">
+      <c r="B54" s="99"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="97"/>
+    </row>
+    <row r="55" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A55" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="67"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="97"/>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="78" t="s">
+      <c r="B55" s="99"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="107"/>
+    </row>
+    <row r="56" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A56" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B56" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="78" t="s">
+      <c r="C56" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="78" t="s">
+      <c r="D56" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="78" t="s">
+      <c r="E56" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="F56" s="98" t="s">
+      <c r="F56" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="G56" s="98" t="s">
+      <c r="G56" s="80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="99" t="s">
+    <row r="57" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A57" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="100" t="s">
+      <c r="B57" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="99" t="s">
+      <c r="C57" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="99" t="s">
+      <c r="D57" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="101" t="s">
+      <c r="E57" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="102" t="s">
+      <c r="F57" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="G57" s="103" t="s">
+      <c r="G57" s="114" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="104"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-    </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="104"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-    </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="104"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="104"/>
-      <c r="G60" s="104"/>
-    </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="104"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="104"/>
-      <c r="E61" s="104"/>
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-    </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="104"/>
-      <c r="B62" s="104"/>
-      <c r="C62" s="104"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="104"/>
-      <c r="F62" s="104"/>
-      <c r="G62" s="104"/>
-    </row>
-    <row r="63" ht="198.75" customHeight="1">
-      <c r="A63" s="105"/>
-      <c r="B63" s="105"/>
-      <c r="C63" s="105"/>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-    </row>
-    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="58" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A58" s="109"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+    </row>
+    <row r="59" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A59" s="109"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+    </row>
+    <row r="60" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A60" s="109"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+    </row>
+    <row r="61" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A61" s="109"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="109"/>
+    </row>
+    <row r="62" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A62" s="109"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="109"/>
+    </row>
+    <row r="63" spans="1:7" ht="198.75" customHeight="1">
+      <c r="A63" s="110"/>
+      <c r="B63" s="110"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="110"/>
+      <c r="G63" s="110"/>
+    </row>
+    <row r="64" spans="1:7" ht="12.75" customHeight="1"/>
     <row r="65" ht="12.75" customHeight="1"/>
     <row r="66" ht="12.75" customHeight="1"/>
     <row r="67" ht="12.75" customHeight="1"/>
@@ -8708,18 +8720,6 @@
     <row r="990" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:G43"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="D45:D51"/>
-    <mergeCell ref="E45:E51"/>
     <mergeCell ref="F45:F51"/>
     <mergeCell ref="G45:G51"/>
     <mergeCell ref="E57:E63"/>
@@ -8732,35 +8732,43 @@
     <mergeCell ref="C57:C63"/>
     <mergeCell ref="D57:D63"/>
     <mergeCell ref="G57:G63"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="E45:E51"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:G43"/>
+    <mergeCell ref="A43:C43"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="60.38"/>
-    <col customWidth="1" min="2" max="26" width="10.63"/>
+    <col min="1" max="1" width="60.42578125" customWidth="1"/>
+    <col min="2" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -8780,252 +8788,252 @@
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A4" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="106" t="s">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="57">
-        <v>1200000.0</v>
-      </c>
-      <c r="C6" s="37">
-        <v>5.0</v>
-      </c>
-      <c r="D6" s="57">
-        <f t="shared" ref="D6:D7" si="1">+B6*C6</f>
+      <c r="B6" s="53">
+        <v>1200000</v>
+      </c>
+      <c r="C6" s="33">
+        <v>5</v>
+      </c>
+      <c r="D6" s="53">
+        <f t="shared" ref="D6:D7" si="0">+B6*C6</f>
         <v>6000000</v>
       </c>
-      <c r="E6" s="57">
-        <v>6000000.0</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="E6" s="53">
+        <v>6000000</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A7" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="57">
-        <v>200000.0</v>
-      </c>
-      <c r="C7" s="37">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="57">
-        <f t="shared" si="1"/>
+      <c r="B7" s="53">
+        <v>200000</v>
+      </c>
+      <c r="C7" s="33">
+        <v>2</v>
+      </c>
+      <c r="D7" s="53">
+        <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="E7" s="57">
-        <v>400000.0</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="E7" s="53">
+        <v>400000</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="39">
+      <c r="B8" s="26"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="35">
         <f>SUM(D6:D7)</f>
         <v>6400000</v>
       </c>
-      <c r="E8" s="39">
-        <v>6400000.0</v>
-      </c>
-      <c r="F8" s="32">
-        <f t="shared" ref="F8:H8" si="2">SUM(F6:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
+      <c r="E8" s="35">
+        <v>6400000</v>
+      </c>
+      <c r="F8" s="28">
+        <f t="shared" ref="F8:H8" si="1">SUM(F6:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="107"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A12" s="82"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
@@ -9045,288 +9053,288 @@
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A17" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="106" t="s">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37">
-        <f t="shared" ref="D19:D33" si="3">+B19*C19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37">
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33">
+        <f t="shared" ref="D19:D33" si="2">+B19*C19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="28">
+        <f t="shared" ref="D34:H34" si="3">SUM(D19:D33)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37">
+      <c r="F34" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37">
+      <c r="G34" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37">
+      <c r="H34" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="32">
-        <f t="shared" ref="D34:H34" si="4">SUM(D19:D33)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="43" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1"/>
     <row r="49" ht="12.75" customHeight="1"/>
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="12.75" customHeight="1"/>
@@ -10284,36 +10292,32 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F17:G17"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.38"/>
-    <col customWidth="1" min="2" max="3" width="10.63"/>
-    <col customWidth="1" min="4" max="5" width="11.75"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col min="1" max="1" width="67.42578125" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -10326,257 +10330,257 @@
       <c r="D3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="108" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+    </row>
+    <row r="4" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A4" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="106" t="s">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37">
-        <f t="shared" ref="D6:D10" si="1">+B6*C6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33">
+        <f t="shared" ref="D6:D10" si="0">+B6*C6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="28">
+        <f t="shared" ref="D11:H11" si="1">SUM(D6:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37">
+      <c r="F11" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37">
+      <c r="G11" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37">
+      <c r="H11" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="32">
-        <f t="shared" ref="D11:H11" si="2">SUM(D6:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+    </row>
+    <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+    </row>
+    <row r="15" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
@@ -10589,155 +10593,155 @@
       <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="108" t="s">
+      <c r="E18" s="46"/>
+      <c r="F18" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="108"/>
-      <c r="H18" s="109"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="35" t="s">
+      <c r="G18" s="83"/>
+      <c r="H18" s="84"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A19" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="97"/>
       <c r="H19" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="106" t="s">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A20" s="32"/>
+      <c r="B20" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106" t="s">
+      <c r="C20" s="81"/>
+      <c r="D20" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37">
-        <f t="shared" ref="D21:D23" si="3">+B21*C21</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37">
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33">
+        <f t="shared" ref="D21:D23" si="2">+B21*C21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="28">
+        <f t="shared" ref="D24:H24" si="3">SUM(D21:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37">
+      <c r="F24" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="32">
-        <f t="shared" ref="D24:H24" si="4">SUM(D21:D23)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="G24" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1">
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="10" t="s">
         <v>10</v>
       </c>
@@ -10750,282 +10754,282 @@
       <c r="D29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="108" t="s">
+      <c r="E29" s="46"/>
+      <c r="F29" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="108"/>
-      <c r="H29" s="109"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="35" t="s">
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A30" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="97"/>
       <c r="H30" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="106" t="s">
+    <row r="31" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106" t="s">
+      <c r="C31" s="81"/>
+      <c r="D31" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="18" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="37" t="s">
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A32" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="57">
-        <v>1800000.0</v>
-      </c>
-      <c r="C32" s="37">
-        <v>24.0</v>
-      </c>
-      <c r="D32" s="57">
-        <f t="shared" ref="D32:D37" si="5">+B32*C32</f>
+      <c r="B32" s="53">
+        <v>1800000</v>
+      </c>
+      <c r="C32" s="33">
+        <v>24</v>
+      </c>
+      <c r="D32" s="53">
+        <f t="shared" ref="D32:D37" si="4">+B32*C32</f>
         <v>43200000</v>
       </c>
-      <c r="E32" s="57">
-        <v>4.32E7</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="37" t="s">
+      <c r="E32" s="53">
+        <v>43200000</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A33" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="57">
-        <v>250000.0</v>
-      </c>
-      <c r="C33" s="37">
-        <v>24.0</v>
-      </c>
-      <c r="D33" s="57">
-        <f t="shared" si="5"/>
+      <c r="B33" s="53">
+        <v>250000</v>
+      </c>
+      <c r="C33" s="33">
+        <v>24</v>
+      </c>
+      <c r="D33" s="53">
+        <f t="shared" si="4"/>
         <v>6000000</v>
       </c>
-      <c r="E33" s="57">
-        <v>6000000.0</v>
-      </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="37" t="s">
+      <c r="E33" s="53">
+        <v>6000000</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A34" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="57">
-        <v>105000.0</v>
-      </c>
-      <c r="C34" s="37">
-        <v>24.0</v>
-      </c>
-      <c r="D34" s="57">
-        <f t="shared" si="5"/>
+      <c r="B34" s="53">
+        <v>105000</v>
+      </c>
+      <c r="C34" s="33">
+        <v>24</v>
+      </c>
+      <c r="D34" s="53">
+        <f t="shared" si="4"/>
         <v>2520000</v>
       </c>
-      <c r="E34" s="57">
-        <v>2520000.0</v>
-      </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="37" t="s">
+      <c r="E34" s="53">
+        <v>2520000</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A35" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="57">
-        <v>50000.0</v>
-      </c>
-      <c r="C35" s="37">
-        <v>24.0</v>
-      </c>
-      <c r="D35" s="57">
-        <f t="shared" si="5"/>
+      <c r="B35" s="53">
+        <v>50000</v>
+      </c>
+      <c r="C35" s="33">
+        <v>24</v>
+      </c>
+      <c r="D35" s="53">
+        <f t="shared" si="4"/>
         <v>1200000</v>
       </c>
-      <c r="E35" s="57">
-        <v>1200000.0</v>
-      </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="37" t="s">
+      <c r="E35" s="53">
+        <v>1200000</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A36" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="57">
-        <v>100000.0</v>
-      </c>
-      <c r="C36" s="37">
-        <v>24.0</v>
-      </c>
-      <c r="D36" s="57">
-        <f t="shared" si="5"/>
+      <c r="B36" s="53">
+        <v>100000</v>
+      </c>
+      <c r="C36" s="33">
+        <v>24</v>
+      </c>
+      <c r="D36" s="53">
+        <f t="shared" si="4"/>
         <v>2400000</v>
       </c>
-      <c r="E36" s="57">
-        <v>2400000.0</v>
-      </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="37" t="s">
+      <c r="E36" s="53">
+        <v>2400000</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A37" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="57">
-        <v>500000.0</v>
-      </c>
-      <c r="C37" s="37">
-        <v>24.0</v>
-      </c>
-      <c r="D37" s="57">
-        <f t="shared" si="5"/>
+      <c r="B37" s="53">
+        <v>500000</v>
+      </c>
+      <c r="C37" s="33">
+        <v>24</v>
+      </c>
+      <c r="D37" s="53">
+        <f t="shared" si="4"/>
         <v>12000000</v>
       </c>
-      <c r="E37" s="57">
-        <v>1.2E7</v>
-      </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="20" t="s">
+      <c r="E37" s="53">
+        <v>12000000</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A38" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="39">
+      <c r="B38" s="26"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="35">
         <f>SUM(D32:D37)</f>
         <v>67320000</v>
       </c>
-      <c r="E38" s="39">
-        <v>6.732E7</v>
-      </c>
-      <c r="F38" s="32">
-        <f t="shared" ref="F38:H38" si="6">SUM(F32:F37)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
+      <c r="E38" s="35">
+        <v>67320000</v>
+      </c>
+      <c r="F38" s="28">
+        <f t="shared" ref="F38:H38" si="5">SUM(F32:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+    </row>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="21" t="s">
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A41" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" ht="12.75" customHeight="1">
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" ht="12.75" customHeight="1">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" ht="12.75" customHeight="1">
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" ht="12.75" customHeight="1">
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" ht="12.75" customHeight="1">
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1">
       <c r="A46" s="10" t="s">
         <v>10</v>
       </c>
@@ -11038,215 +11042,215 @@
       <c r="D46" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="108" t="s">
+      <c r="E46" s="46"/>
+      <c r="F46" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="108"/>
-      <c r="H46" s="109"/>
-    </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="35" t="s">
+      <c r="G46" s="83"/>
+      <c r="H46" s="84"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A47" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="16"/>
+      <c r="G47" s="97"/>
       <c r="H47" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="36"/>
-      <c r="B48" s="106" t="s">
+    <row r="48" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A48" s="32"/>
+      <c r="B48" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106" t="s">
+      <c r="C48" s="81"/>
+      <c r="D48" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="18" t="s">
+      <c r="E48" s="17"/>
+      <c r="F48" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37">
-        <f t="shared" ref="D49:D52" si="7">+B49*C49</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-    </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37">
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33">
+        <f t="shared" ref="D49:D52" si="6">+B49*C49</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A53" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="28">
+        <f t="shared" ref="D53:H53" si="7">SUM(D49:D52)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-    </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37">
+      <c r="F53" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37">
+      <c r="G53" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="32">
-        <f t="shared" ref="D53:H53" si="8">SUM(D49:D52)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
+      <c r="H53" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-    </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-    </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-    </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-    </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-    </row>
-    <row r="60" ht="12.75" customHeight="1">
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-    </row>
-    <row r="61" ht="12.75" customHeight="1">
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="110" t="s">
+    <row r="62" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A62" s="85" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:8" ht="12.75" customHeight="1">
       <c r="A63" s="10" t="s">
         <v>10</v>
       </c>
@@ -11259,124 +11263,124 @@
       <c r="D63" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="50"/>
-      <c r="F63" s="108" t="s">
+      <c r="E63" s="46"/>
+      <c r="F63" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="108"/>
-      <c r="H63" s="109"/>
-    </row>
-    <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="35" t="s">
+      <c r="G63" s="83"/>
+      <c r="H63" s="84"/>
+    </row>
+    <row r="64" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A64" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="16"/>
+      <c r="G64" s="97"/>
       <c r="H64" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="36"/>
-      <c r="B65" s="106" t="s">
+    <row r="65" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A65" s="32"/>
+      <c r="B65" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106" t="s">
+      <c r="C65" s="81"/>
+      <c r="D65" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="18" t="s">
+      <c r="E65" s="17"/>
+      <c r="F65" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37">
-        <f t="shared" ref="D66:D67" si="9">+B66*C66</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-    </row>
-    <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37">
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33">
+        <f t="shared" ref="D66:D67" si="8">+B66*C66</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+    </row>
+    <row r="67" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+    </row>
+    <row r="68" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A68" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="26"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="28">
+        <f t="shared" ref="D68:H68" si="9">SUM(D66:D67)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-    </row>
-    <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="32">
-        <f t="shared" ref="D68:H68" si="10">SUM(D66:D67)</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1">
+      <c r="F68" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="70" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="71" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="72" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="73" spans="1:8" ht="12.75" customHeight="1">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:8" ht="12.75" customHeight="1">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="75" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="76" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="77" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="78" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="79" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="80" spans="1:8" ht="12.75" customHeight="1"/>
     <row r="81" ht="12.75" customHeight="1"/>
     <row r="82" ht="12.75" customHeight="1"/>
     <row r="83" ht="12.75" customHeight="1"/>
@@ -12305,470 +12309,466 @@
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="F64:G64"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.75"/>
-    <col customWidth="1" min="2" max="2" width="13.25"/>
-    <col customWidth="1" min="3" max="3" width="15.0"/>
-    <col customWidth="1" min="4" max="5" width="18.63"/>
-    <col customWidth="1" min="6" max="6" width="16.25"/>
-    <col customWidth="1" min="7" max="26" width="10.63"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="51"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="112" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A5" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="106" t="s">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A7" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="113">
-        <f t="shared" ref="B7:B19" si="1">SUM(C7:F7)</f>
+      <c r="B7" s="88">
+        <f t="shared" ref="B7:B19" si="0">SUM(C7:F7)</f>
         <v>144360000</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="88">
         <f>+'Remun., honor., incent.'!I21</f>
         <v>144360000</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="44">
         <f>+'Remun., honor., incent.'!J21</f>
         <v>0</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="44">
         <f>+'Remun., honor., incent.'!K21</f>
         <v>0</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="44">
         <f>+'Remun., honor., incent.'!L21</f>
         <v>0</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A8" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="113">
-        <f t="shared" si="1"/>
+      <c r="B8" s="88">
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="88">
         <f>+Subcontratos!D7</f>
         <v>500000</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="44">
         <f>+Subcontratos!E7</f>
         <v>0</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="44">
         <f>+Subcontratos!F7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="44">
         <f>+Subcontratos!G7</f>
         <v>0</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="37" t="s">
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="113">
-        <f>+'Capacitación'!F12</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="48">
-        <f>+'Capacitación'!G12</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="48">
-        <f>+'Capacitación'!H12</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="48">
-        <f>+'Capacitación'!I12</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="37" t="s">
+      <c r="B9" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="88">
+        <f>+Capacitación!F12</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="44">
+        <f>+Capacitación!G12</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="44">
+        <f>+Capacitación!H12</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="44">
+        <f>+Capacitación!I12</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A10" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="113">
+      <c r="B10" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="88">
         <f>+'Pasajes y viáticos'!J15</f>
         <v>0</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="44">
         <f>+'Pasajes y viáticos'!K15</f>
         <v>0</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="44">
         <f>+'Pasajes y viáticos'!L15</f>
         <v>0</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="44">
         <f>+'Pasajes y viáticos'!M15</f>
         <v>0</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="37" t="s">
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A11" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="113">
-        <f t="shared" si="1"/>
+      <c r="B11" s="88">
+        <f t="shared" si="0"/>
         <v>20868000</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="88">
         <f>+'Equipos e infra'!G12</f>
         <v>20868000</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="44">
         <f>+'Equipos e infra'!H12</f>
         <v>0</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="44">
         <f>+'Equipos e infra'!I12</f>
         <v>0</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="44">
         <f>+'Equipos e infra'!J12</f>
         <v>0</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A12" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="113">
+      <c r="B12" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="88">
         <f>+'Equipos e infra'!G31</f>
         <v>0</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="44">
         <f>+'Equipos e infra'!H31</f>
         <v>0</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="44">
         <f>+'Equipos e infra'!I31</f>
         <v>0</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="44">
         <f>+'Equipos e infra'!J31</f>
         <v>0</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="37" t="s">
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A13" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="113">
-        <f t="shared" si="1"/>
+      <c r="B13" s="88">
+        <f t="shared" si="0"/>
         <v>6400000</v>
       </c>
-      <c r="C13" s="113">
+      <c r="C13" s="88">
         <f>+'Software, fungibles'!E8</f>
         <v>6400000</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="44">
         <f>+'Software, fungibles'!F8</f>
         <v>0</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="44">
         <f>+'Software, fungibles'!G8</f>
         <v>0</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="44">
         <f>+'Software, fungibles'!H8</f>
         <v>0</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="37" t="s">
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A14" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="113">
+      <c r="B14" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="88">
         <f>+'Software, fungibles'!E34</f>
         <v>0</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="44">
         <f>+'Software, fungibles'!F34</f>
         <v>0</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="44">
         <f>+'Software, fungibles'!G34</f>
         <v>0</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="44">
         <f>+'Software, fungibles'!H34</f>
         <v>0</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="37" t="s">
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A15" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="113">
+      <c r="B15" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="88">
         <f>+Otros!E11</f>
         <v>0</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="44">
         <f>+Otros!F11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="44">
         <f>+Otros!G11</f>
         <v>0</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="44">
         <f>+Otros!H11</f>
         <v>0</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="37" t="s">
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A16" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="113">
+      <c r="B16" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="88">
         <f>+Otros!E24</f>
         <v>0</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="44">
         <f>+Otros!F24</f>
         <v>0</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="44">
         <f>+Otros!G24</f>
         <v>0</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="44">
         <f>+Otros!H24</f>
         <v>0</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+    </row>
+    <row r="17" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A17" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="113">
+      <c r="B17" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="88">
         <f>+Otros!E53</f>
         <v>0</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="44">
         <f>+Otros!F53</f>
         <v>0</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="44">
         <f>+Otros!G53</f>
         <v>0</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="44">
         <f>+Otros!H53</f>
         <v>0</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="37" t="s">
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+    </row>
+    <row r="18" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A18" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="113">
-        <f t="shared" si="1"/>
+      <c r="B18" s="88">
+        <f t="shared" si="0"/>
         <v>67320000</v>
       </c>
-      <c r="C18" s="113">
+      <c r="C18" s="88">
         <f>+Otros!E38</f>
         <v>67320000</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="44">
         <f>+Otros!F38</f>
         <v>0</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="44">
         <f>+Otros!G38</f>
         <v>0</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="44">
         <f>+Otros!H38</f>
         <v>0</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="37" t="s">
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A19" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="113">
+      <c r="B19" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="88">
+        <f>+Otros!E68</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="44">
+        <f>+Otros!F68</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="44">
+        <f>+Otros!G68</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="44">
+        <f>+Otros!H68</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+    </row>
+    <row r="20" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="89">
+        <f t="shared" ref="B20:F20" si="1">SUM(B7:B19)</f>
+        <v>239448000</v>
+      </c>
+      <c r="C20" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="113">
-        <f>+Otros!E68</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="48">
-        <f>+Otros!F68</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="48">
-        <f>+Otros!G68</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="48">
-        <f>+Otros!H68</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="114">
-        <f t="shared" ref="B20:F20" si="2">SUM(B7:B19)</f>
         <v>239448000</v>
       </c>
-      <c r="C20" s="114">
-        <f t="shared" si="2"/>
-        <v>239448000</v>
-      </c>
-      <c r="D20" s="115">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="115">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="115">
-        <f t="shared" si="2"/>
+      <c r="D20" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="90">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="5"/>
@@ -12792,145 +12792,145 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A21" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="116">
+      <c r="B21" s="91">
         <f>SUM(C21:F21)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="116">
+      <c r="C21" s="91">
         <f>+C20/B20</f>
         <v>1</v>
       </c>
-      <c r="D21" s="116">
+      <c r="D21" s="91">
         <f>+D20/B20</f>
         <v>0</v>
       </c>
-      <c r="E21" s="116">
+      <c r="E21" s="91">
         <f>+E20/B20</f>
         <v>0</v>
       </c>
-      <c r="F21" s="116">
+      <c r="F21" s="91">
         <f>+F20/B20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="22" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+    </row>
+    <row r="23" spans="1:26" ht="12.75" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+    </row>
+    <row r="24" spans="1:26" ht="12.75" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+    </row>
+    <row r="25" spans="1:26" ht="12.75" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+    </row>
+    <row r="26" spans="1:26" ht="12.75" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="119" t="s">
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A32" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="90" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A33" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="120">
+      <c r="B33" s="95">
         <f>+D20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A34" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="120">
+      <c r="B34" s="95">
         <f>+E20</f>
         <v>0</v>
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A35" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="120">
+      <c r="B35" s="95">
         <f>+B20</f>
         <v>239448000</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A36" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="22">
         <f>+B33/B35</f>
         <v>0</v>
       </c>
@@ -12938,32 +12938,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="118"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="118"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="118"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="41" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="43" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="49" ht="12.75" customHeight="1"/>
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="12.75" customHeight="1"/>
@@ -13920,9 +13920,7 @@
   <mergeCells count="1">
     <mergeCell ref="D5:E5"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>